--- a/tables/binom_excel.xlsx
+++ b/tables/binom_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f52dc1d49bdd24b/Documents/bamfield 2024/DS/Nudireactors Coding and Data/nudi-reactors/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D1BD507-1084-406D-B5E0-C12A0FC14F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{9D444285-E5EF-458A-9885-6A820423E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{11B6D076-1B81-4718-A018-517780681AD7}"/>
   </bookViews>
